--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2158.702910715796</v>
+        <v>429581.8792324438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2158.702910715796</v>
+        <v>429581.8792324438</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85812.82985585637</v>
+        <v>5856417.955912123</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85812.82985585637</v>
+        <v>5856417.955912123</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343058661.380963</v>
+        <v>50397134.86935528</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15144.69340634125</v>
+        <v>1321197.694742288</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28318.7830053164</v>
+        <v>2302925.836712197</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41496.22956255446</v>
+        <v>3284653.978682106</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54937.38375766735</v>
+        <v>4265338.819071695</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68378.53795278026</v>
+        <v>5246023.659461286</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81819.69214789316</v>
+        <v>6226708.499850875</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95260.84634300604</v>
+        <v>7207393.340240459</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>108702.000538119</v>
+        <v>8188078.180630043</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>122306.5480961231</v>
+        <v>9123698.012712525</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>135969.6976743292</v>
+        <v>10070979.64681521</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149632.8472525353</v>
+        <v>11018261.2809179</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>163295.9968307414</v>
+        <v>11965542.91502058</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176959.1464089475</v>
+        <v>12912824.54912328</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>190623.1547691541</v>
+        <v>13860104.83483575</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>204287.1631293608</v>
+        <v>14807385.12054823</v>
       </c>
     </row>
   </sheetData>
